--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D4AF3-848A-114C-B53E-02139980EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23180" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>강의ID</t>
   </si>
@@ -67,7 +73,7 @@
     <t>함수해석학</t>
   </si>
   <si>
-    <t>해석학1</t>
+    <t>집합론</t>
   </si>
   <si>
     <t>월, 수</t>
@@ -79,7 +85,10 @@
     <t>0,1,2</t>
   </si>
   <si>
-    <t>13,14,15,16,17,18</t>
+    <t>12,13,14,15,16,17</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4, 5</t>
   </si>
   <si>
     <t>607-208</t>
@@ -92,17 +101,21 @@
   </si>
   <si>
     <t>대학원수학전공</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,8 +123,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,22 +170,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -207,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +268,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +320,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,12 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -491,8 +558,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -507,10 +574,10 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>2022</v>
@@ -523,7 +590,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -539,10 +606,10 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>2021</v>
@@ -558,8 +625,12 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D4AF3-848A-114C-B53E-02139980EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6AC81-2706-9448-829D-B290F6F16BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23180" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>강의ID</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +521,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -590,8 +594,8 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6AC81-2706-9448-829D-B290F6F16BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B907F-2CB0-D94B-90F6-17EB0A00C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23180" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>강의ID</t>
   </si>
@@ -64,18 +64,12 @@
     <t>이용훈</t>
   </si>
   <si>
-    <t>이상율</t>
-  </si>
-  <si>
     <t>수학(II)</t>
   </si>
   <si>
     <t>함수해석학</t>
   </si>
   <si>
-    <t>집합론</t>
-  </si>
-  <si>
     <t>월, 수</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>12,13,14,15,16,17</t>
-  </si>
-  <si>
-    <t>0, 1, 2, 3, 4, 5</t>
   </si>
   <si>
     <t>607-208</t>
@@ -518,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -563,25 +554,25 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>2022</v>
@@ -595,42 +586,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>2021</v>
       </c>
       <c r="J3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B907F-2CB0-D94B-90F6-17EB0A00C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14227070-43C8-7D4B-9024-85D98BADC841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23180" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>강의ID</t>
   </si>
@@ -92,14 +92,6 @@
   </si>
   <si>
     <t>대학원수학전공</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,12 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -512,7 +503,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -553,8 +544,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -585,8 +576,8 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14227070-43C8-7D4B-9024-85D98BADC841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>강의ID</t>
-  </si>
-  <si>
-    <t>분반</t>
-  </si>
-  <si>
-    <t>교수명</t>
-  </si>
-  <si>
-    <t>강좌명</t>
-  </si>
-  <si>
-    <t>요일</t>
-  </si>
-  <si>
-    <t>시간ID</t>
-  </si>
-  <si>
-    <t>강의실명</t>
-  </si>
-  <si>
-    <t>대상학과</t>
-  </si>
-  <si>
-    <t>년도</t>
-  </si>
-  <si>
-    <t>학기</t>
-  </si>
-  <si>
-    <t>MA15644</t>
-  </si>
-  <si>
-    <t>MA68524</t>
-  </si>
-  <si>
-    <t>신기연</t>
-  </si>
-  <si>
-    <t>이용훈</t>
-  </si>
-  <si>
-    <t>수학(II)</t>
-  </si>
-  <si>
-    <t>함수해석학</t>
-  </si>
-  <si>
-    <t>월, 수</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17</t>
-  </si>
-  <si>
-    <t>607-208</t>
-  </si>
-  <si>
-    <t>607-211</t>
-  </si>
-  <si>
-    <t>수학과2</t>
-  </si>
-  <si>
-    <t>대학원수학전공</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,48 +46,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -222,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,113 +420,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>강의ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>교수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>강좌명</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>분반</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>요일</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>시간ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>강의실명</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>대상학과</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>학기</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LA001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>신기연</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학(II)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>월, 수</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>수학과2</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LA002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>함수해석학</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12,13,14,15,16,17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>대학원수학전공</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>2022</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>2021</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>대수학(I)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LA003</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>이용훈</t>
@@ -601,11 +605,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>전공필수</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -613,9 +621,108 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>수학과3</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LA005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>이동희</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>추상대수학</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>대학원수학전공</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LA006</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>김상일</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>논문연구</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>대학원수학전공</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>정수론</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5, 6, 7</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,144 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>강의ID</t>
-  </si>
-  <si>
-    <t>교수명</t>
-  </si>
-  <si>
-    <t>강좌명</t>
-  </si>
-  <si>
-    <t>분반</t>
-  </si>
-  <si>
-    <t>분류</t>
-  </si>
-  <si>
-    <t>요일</t>
-  </si>
-  <si>
-    <t>시간ID</t>
-  </si>
-  <si>
-    <t>강의실명</t>
-  </si>
-  <si>
-    <t>대상학과</t>
-  </si>
-  <si>
-    <t>년도</t>
-  </si>
-  <si>
-    <t>학기</t>
-  </si>
-  <si>
-    <t>LA001</t>
-  </si>
-  <si>
-    <t>LA002</t>
-  </si>
-  <si>
-    <t>신기연</t>
-  </si>
-  <si>
-    <t>이용훈</t>
-  </si>
-  <si>
-    <t>수학(II)</t>
-  </si>
-  <si>
-    <t>함수해석학</t>
-  </si>
-  <si>
-    <t>미분방정식(I)</t>
-  </si>
-  <si>
-    <t>대수학(I)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>전공기초</t>
-  </si>
-  <si>
-    <t>전공</t>
-  </si>
-  <si>
-    <t>월, 수</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17</t>
-  </si>
-  <si>
-    <t>0, 1, 2, 3, 4, 5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>607-208</t>
-  </si>
-  <si>
-    <t>607-211</t>
-  </si>
-  <si>
-    <t>607-110</t>
-  </si>
-  <si>
-    <t>수학과2</t>
-  </si>
-  <si>
-    <t>대학원수학전공</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,153 +420,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>강의ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>교수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>강좌명</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>분반</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>요일</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>시간ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>강의실명</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>대상학과</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>학기</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LA001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>신기연</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학(II)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>월, 수</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>수학과2</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LA002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>함수해석학</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12,13,14,15,16,17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>대학원수학전공</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>미분방정식(I)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0, 1, 2, 3, 4, 5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>대수학(I)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2">
-        <v>2022</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>2021</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>강의ID</t>
   </si>
@@ -85,43 +93,44 @@
     <t>목</t>
   </si>
   <si>
-    <t>12, 13, 14, 15, 16, 17</t>
-  </si>
-  <si>
     <t>607-211</t>
   </si>
   <si>
     <t>대학원수학전공</t>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,61 +202,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -373,7 +428,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -382,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -465,7 +520,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -473,7 +528,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -492,7 +547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -522,7 +577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -548,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -574,7 +629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,7 +681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,9 +798,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -760,7 +821,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -768,7 +829,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -787,7 +848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,9 +1095,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1050,7 +1117,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1069,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,89 +1387,98 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="12" width="8.81640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="4">
@@ -1412,33 +1488,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="I3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s" s="5">
-        <v>26</v>
       </c>
       <c r="J3" s="6">
         <v>2021</v>
@@ -1447,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1460,7 +1536,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1473,7 +1549,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1486,7 +1562,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1499,7 +1575,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1512,7 +1588,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1525,7 +1601,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1539,8 +1615,9 @@
       <c r="K10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haram_Song\PycharmProjects\classschedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5447FA7-CC2A-41BA-9C90-EEC3AA47A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1416" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>강의ID</t>
   </si>
@@ -53,61 +54,12 @@
   <si>
     <t>학기</t>
   </si>
-  <si>
-    <t>LA001</t>
-  </si>
-  <si>
-    <t>신기연</t>
-  </si>
-  <si>
-    <t>수학(II)</t>
-  </si>
-  <si>
-    <t>전공기초</t>
-  </si>
-  <si>
-    <t>월, 수</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>607-208</t>
-  </si>
-  <si>
-    <t>수학과2</t>
-  </si>
-  <si>
-    <t>LA002</t>
-  </si>
-  <si>
-    <t>이용훈</t>
-  </si>
-  <si>
-    <t>대수학(I)</t>
-  </si>
-  <si>
-    <t>전공</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>607-211</t>
-  </si>
-  <si>
-    <t>대학원수학전공</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -115,12 +67,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -147,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,21 +124,6 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -204,18 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1405,20 +1331,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="8.81640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,169 +1379,99 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>강의ID</t>
   </si>
@@ -53,84 +45,35 @@
   <si>
     <t>학기</t>
   </si>
-  <si>
-    <t>LA001</t>
-  </si>
-  <si>
-    <t>신기연</t>
-  </si>
-  <si>
-    <t>수학(II)</t>
-  </si>
-  <si>
-    <t>전공기초</t>
-  </si>
-  <si>
-    <t>월, 수</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>607-208</t>
-  </si>
-  <si>
-    <t>수학과2</t>
-  </si>
-  <si>
-    <t>LA002</t>
-  </si>
-  <si>
-    <t>이용훈</t>
-  </si>
-  <si>
-    <t>대수학(I)</t>
-  </si>
-  <si>
-    <t>전공</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>607-211</t>
-  </si>
-  <si>
-    <t>대학원수학전공</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,21 +104,6 @@
       </left>
       <right style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -202,107 +130,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -428,7 +298,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +307,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -446,9 +316,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -520,7 +390,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -528,7 +398,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -547,19 +417,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -577,7 +447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -603,7 +473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,7 +499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,15 +668,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -821,15 +685,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -848,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,15 +959,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1117,7 +975,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1136,19 +994,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1166,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,237 +1245,157 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="12" width="8.81640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="11" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/lesson_assign.xlsx
+++ b/data/lesson_assign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haram_Song\PycharmProjects\classschedule\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haram_Song\PycharmProjects\classschedule\data\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5447FA7-CC2A-41BA-9C90-EEC3AA47A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C093B-3CB9-4D3E-AF11-A9A6AEA3A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
